--- a/docs/QA/Bug Report v2.xlsx
+++ b/docs/QA/Bug Report v2.xlsx
@@ -472,185 +472,185 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,7 +938,7 @@
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,20 +957,20 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="Q2" s="3"/>
@@ -981,18 +981,18 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1001,18 +1001,18 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1021,22 +1021,22 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="69" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="66"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="12"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="4"/>
@@ -1045,18 +1045,18 @@
     </row>
     <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="4"/>
@@ -1065,20 +1065,20 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="H7" s="69" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="H7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="Q7" s="3"/>
@@ -1089,16 +1089,16 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="Q8" s="3"/>
@@ -1109,18 +1109,18 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="H9" s="69" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="Q9" s="3"/>
@@ -1131,18 +1131,18 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="Q10" s="3"/>
@@ -1153,18 +1153,18 @@
     </row>
     <row r="11" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="H11" s="69" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="H11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="Q11" s="3"/>
@@ -1175,18 +1175,18 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="Q12" s="3"/>
@@ -1197,18 +1197,18 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="H13" s="35" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="H13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1217,18 +1217,18 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1255,18 +1255,18 @@
     </row>
     <row r="16" spans="1:21" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="H16" s="38" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="H16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
@@ -1275,18 +1275,18 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
@@ -1295,18 +1295,18 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="H18" s="69" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="H18" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="4"/>
@@ -1315,18 +1315,18 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="4"/>
@@ -1335,18 +1335,18 @@
     </row>
     <row r="20" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="H20" s="69" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="H20" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="4"/>
@@ -1355,18 +1355,18 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
       <c r="H21" s="71"/>
       <c r="I21" s="72"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="4"/>
@@ -1375,11 +1375,11 @@
     </row>
     <row r="22" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
@@ -1388,105 +1388,105 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="H23" s="11" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="H23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="12">
+      <c r="K24" s="54">
         <v>1</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
       <c r="H25" s="9"/>
       <c r="I25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="13">
+      <c r="K25" s="59">
         <v>2</v>
       </c>
-      <c r="L25" s="13"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="H26" s="10"/>
       <c r="I26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="49">
+      <c r="K26" s="60">
         <v>3</v>
       </c>
-      <c r="L26" s="49"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="50">
+      <c r="K27" s="61">
         <v>4</v>
       </c>
-      <c r="L27" s="50"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="51">
+      <c r="K28" s="62">
         <v>5</v>
       </c>
-      <c r="L28" s="51"/>
+      <c r="L28" s="62"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1749,6 +1749,40 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="B7:F9"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:F20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:F24"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="J18:L19"/>
+    <mergeCell ref="J20:L21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="B14:F16"/>
     <mergeCell ref="H2:L4"/>
     <mergeCell ref="H13:L15"/>
     <mergeCell ref="J5:L6"/>
@@ -1759,40 +1793,6 @@
     <mergeCell ref="H9:I10"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H5:I6"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="B14:F16"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:F24"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="J18:L19"/>
-    <mergeCell ref="J20:L21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:F20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="B7:F9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
